--- a/DynamicUsgbc.xlsx
+++ b/DynamicUsgbc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARJUN\Desktop\NEW USGBC\DynamicUsgbc\DynamicUsgbc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARJUN\git\Katalon-Usgbc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="3960" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="3960" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CommunityRegistration" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>S35575</t>
   </si>
   <si>
-    <t>12/10/1990</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -667,6 +664,9 @@
   </si>
   <si>
     <t>PA</t>
+  </si>
+  <si>
+    <t>12-10-1990</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -1147,28 +1147,28 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1" t="s">
         <v>136</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>137</v>
       </c>
-      <c r="X1" t="s">
-        <v>138</v>
-      </c>
       <c r="Y1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
@@ -1182,25 +1182,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
         <v>189</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>190</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>191</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -1212,16 +1212,16 @@
         <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O2" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>17</v>
@@ -1233,28 +1233,28 @@
         <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V2" t="s">
         <v>24</v>
       </c>
       <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
         <v>139</v>
       </c>
-      <c r="X2" t="s">
-        <v>140</v>
-      </c>
       <c r="Y2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1266,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1289,55 +1289,55 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N1" t="s">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P1" t="s">
         <v>5</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
@@ -1349,69 +1349,69 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
         <v>58</v>
-      </c>
-      <c r="V1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>156</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
-      </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" t="s">
         <v>154</v>
       </c>
-      <c r="L2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>190</v>
       </c>
-      <c r="O2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="T2" s="3" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1448,22 +1448,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -1487,66 +1487,66 @@
         <v>7</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" t="s">
         <v>189</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>190</v>
       </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>191</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="N2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>300</v>
@@ -1580,19 +1580,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1613,45 +1613,45 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
         <v>189</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>190</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>191</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1681,54 +1681,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
       <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1762,19 +1762,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1797,37 +1797,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
         <v>189</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>190</v>
       </c>
-      <c r="I2" t="s">
-        <v>191</v>
-      </c>
       <c r="J2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1862,28 +1862,28 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1892,114 +1892,114 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
       <c r="S1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" t="s">
         <v>158</v>
       </c>
-      <c r="E2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" t="s">
         <v>191</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2026,100 +2026,100 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2149,48 +2149,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2219,30 +2219,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
-        <v>96</v>
-      </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2291,16 +2291,16 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>99</v>
-      </c>
-      <c r="B1" t="s">
-        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2315,180 +2315,180 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>111</v>
-      </c>
       <c r="Q1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U1" t="s">
         <v>172</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>173</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>174</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>176</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>179</v>
       </c>
-      <c r="AE1" t="s">
-        <v>180</v>
-      </c>
       <c r="AF1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
         <v>189</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>190</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>191</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="K2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD2" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R2" t="s">
-        <v>109</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="T2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>170</v>
       </c>
-      <c r="AE2" t="s">
-        <v>171</v>
-      </c>
       <c r="AF2" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/DynamicUsgbc.xlsx
+++ b/DynamicUsgbc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="3960" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16650" windowHeight="3960" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CommunityRegistration" sheetId="1" r:id="rId1"/>
@@ -411,12 +411,6 @@
     <t>testuser678679@email.com</t>
   </si>
   <si>
-    <t>2018-12-01</t>
-  </si>
-  <si>
-    <t>2018-12-10</t>
-  </si>
-  <si>
     <t>orderNumber</t>
   </si>
   <si>
@@ -666,7 +660,13 @@
     <t>PA</t>
   </si>
   <si>
-    <t>12-10-1990</t>
+    <t>12/10/1990</t>
+  </si>
+  <si>
+    <t>12-10-2020</t>
+  </si>
+  <si>
+    <t>12-01-2019</t>
   </si>
 </sst>
 </file>
@@ -1150,25 +1150,25 @@
         <v>37</v>
       </c>
       <c r="V1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="W1" t="s">
-        <v>136</v>
-      </c>
-      <c r="X1" t="s">
-        <v>137</v>
-      </c>
       <c r="Y1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" t="s">
         <v>140</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>144</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
@@ -1185,22 +1185,22 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
         <v>188</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>189</v>
-      </c>
-      <c r="G2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" t="s">
-        <v>191</v>
       </c>
       <c r="I2" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -1212,7 +1212,7 @@
         <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
         <v>13</v>
@@ -1233,28 +1233,28 @@
         <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="V2" t="s">
         <v>24</v>
       </c>
       <c r="W2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y2" t="s">
         <v>139</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>141</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" t="s">
         <v>145</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1266,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1289,7 +1289,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
@@ -1298,7 +1298,7 @@
         <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
         <v>42</v>
@@ -1319,19 +1319,19 @@
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
         <v>4</v>
       </c>
       <c r="O1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
         <v>5</v>
@@ -1360,16 +1360,16 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
         <v>39</v>
@@ -1378,34 +1378,34 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M2" t="s">
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q2" t="s">
         <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U2" t="s">
         <v>59</v>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1448,7 +1448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1496,12 +1496,12 @@
         <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1510,10 +1510,10 @@
         <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>39</v>
@@ -1522,31 +1522,31 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="L2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="N2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>300</v>
@@ -1580,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -1630,25 +1630,25 @@
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" t="s">
         <v>188</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>189</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="J2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
@@ -1702,7 +1702,7 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1722,13 +1722,13 @@
         <v>97</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1815,19 +1815,19 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" t="s">
         <v>188</v>
       </c>
-      <c r="H2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="J2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1871,19 +1871,19 @@
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -1907,7 +1907,7 @@
         <v>54</v>
       </c>
       <c r="P1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q1" t="s">
         <v>55</v>
@@ -1916,19 +1916,19 @@
         <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T1" t="s">
         <v>68</v>
       </c>
       <c r="U1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" t="s">
         <v>127</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>129</v>
-      </c>
-      <c r="W1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
@@ -1942,43 +1942,43 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>189</v>
       </c>
-      <c r="G2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="M2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -1987,19 +1987,19 @@
         <v>65</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" t="s">
         <v>130</v>
-      </c>
-      <c r="W2" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2152,7 @@
         <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
         <v>112</v>
@@ -2175,7 +2175,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -2184,10 +2184,10 @@
         <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>119</v>
@@ -2348,46 +2348,46 @@
         <v>37</v>
       </c>
       <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" t="s">
         <v>171</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>172</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>173</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>174</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>175</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD1" t="s">
         <v>176</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>177</v>
       </c>
-      <c r="AA1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>179</v>
-      </c>
       <c r="AF1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -2404,37 +2404,37 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
         <v>188</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>189</v>
-      </c>
-      <c r="G2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" t="s">
-        <v>191</v>
       </c>
       <c r="I2" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P2" t="s">
         <v>104</v>
@@ -2446,46 +2446,46 @@
         <v>108</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" t="s">
         <v>139</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>141</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" t="s">
         <v>145</v>
       </c>
-      <c r="Y2" t="s">
-        <v>147</v>
-      </c>
       <c r="Z2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AA2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AB2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE2" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>170</v>
-      </c>
       <c r="AF2" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AG2" t="s">
         <v>101</v>
